--- a/Output_testing/R1_201907/Country/HKD/MN/KENYA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/KENYA_201907_HKD_MN.xlsx
@@ -810,136 +810,437 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>942.854774</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>71.31974304090758</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>713.764797</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>43.57585309878147</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>786.856805</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>54.821465428255</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>621.674744</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>62.3842620187328</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>93.1088699783954</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>113.058841</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>8.552035489426101</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>514.82926</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>31.43069579643947</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>195.930008</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>13.65073046541133</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>137.379261</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>13.78583237758792</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>120.995230946165</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>20.918761</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.582344068667949</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>46.194478</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.820206033925336</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>54.432502</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.792392094221542</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>45.940401</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.61006022987103</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>5.138567142278361</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>10.811332</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.8177944699784078</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>54.539434</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.329671586583847</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>7.725573</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.5382519798287317</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>32.158484</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.227062561803582</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>439.2735595761874</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>16.408081</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.241145670557317</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>22.126159</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.350817886055372</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>23.804692</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.65850773764136</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>18.496113</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.856061181279209</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>17.0554864677571</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>33.402666</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.526655877123724</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>25.472422</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.555109643691449</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>29.642026</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.065203342280856</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>17.627218</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.768868684125477</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>3.216180386884626</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>9.051684</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.684690574592662</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>19.23888</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.174547431014708</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>21.34887</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.487407023997601</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>12.560216</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.260401541993284</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>6.69360010805089</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>12.259007</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.9272999970796005</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>26.883923</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.641282792722197</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>31.892769</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.222015901794003</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>11.865862</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.190724009991509</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>214.5200981369252</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>19.652229</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.48654062227941</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>34.911126</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.131349296691428</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>29.102539</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.027616493274075</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>11.736768</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.177769592912847</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-35.67194576013454</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>SOUND RECORDERS OR REPRODUCERS; TELEVISION IMAGE AND SOUND RECORDERS OR REPRODUCERS; PREPARED UNRECORDED MEDIA</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>5.284459</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.322620014405857</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>20.269285</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.412190756719639</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>9.748168</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.9782161372710139</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>22.52357513809744</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>143.107374</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>10.82497689186973</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>174.737445</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.66784641968887</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>234.302796</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>16.32421877657585</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>77.337728</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>7.760741664431341</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-54.34438646648753</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1272,523 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1.514247</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>20.73718386773314</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>2.288731</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>26.2985108858067</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>2.358348</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>34.67068736329666</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.249039</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>32.47019217646179</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>28.67935219335298</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>6.399212499003709</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.977782</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.23513884809785</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.015775</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>14.93317248194612</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.7520210000000001</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>19.54964287803261</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>86.63858893254147</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>4.737931</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>64.88462338022313</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>2.307624</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>26.51559964205002</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.697434</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>18.13059160714634</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.017038144990349</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>2.233165710892425</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>4.633013914154638</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.554445</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>14.41342960570355</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.136333899723881</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>8.175759899654901</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.457882857035647</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.404556094686686</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.191963467956692</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.52141756949093</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>27.7706788212512</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.5859040201771855</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.546354366376593</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.4001048467520104</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.866746364312001</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.9038775749624602</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.383566540368755</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>32.89220704636819</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.183578238631563</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>5.609670989906173</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>2.201061440266063</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.9039363800028755</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.6254671181329573</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>2.943693308232076</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.494283414355843</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>2.54518</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>29.24522101388825</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>2.791673</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>41.04111089777949</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1820,437 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>942.854774</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>71.71586337814226</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>713.764797</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>43.80861607494451</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>786.856805</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>55.0825096552098</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>621.674744</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>62.62600711913663</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>93.1088699783954</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>113.058841</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>8.599534751729548</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>514.82926</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>31.59858470224861</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>195.930008</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>13.71573136157262</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>137.379261</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>13.83925382274775</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>120.995230946165</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>20.918761</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.591132640238412</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>46.194478</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.835270329932607</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>54.432502</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.810450386804785</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>45.940401</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.627924662935947</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>5.138567142278361</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>10.811332</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.8223366206848496</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>54.539434</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.3474572227338</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>7.725573</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.5408149826759497</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>32.158484</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.239567744004478</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>439.2735595761874</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>16.408081</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.248039176066676</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>21.944614</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.346890703603658</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>23.6793</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.657627236099978</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>18.496113</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.863253599400453</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>17.88603009364158</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>31.888419</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.425511927618405</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>23.183691</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.422941314124723</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>27.283678</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.909945300485309</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>16.378179</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.649898060926364</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>1.681715743793188</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>8.642061</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.6573365093674242</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>19.047324</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.169064246203048</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>21.287383</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.490185345263233</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>12.536156</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.262861974818471</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>6.701059796620235</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>12.259007</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.9324503575814632</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>26.883923</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.650049801062646</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>31.892769</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.232596509569331</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>11.865862</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.195338181675742</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>214.5200981369252</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>19.184953</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.459254920486918</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>33.933344</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.082720870632993</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>28.086764</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.966163906040819</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>10.984747</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.106576791905052</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-38.43406736448976</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SOUND RECORDERS OR REPRODUCERS; TELEVISION IMAGE AND SOUND RECORDERS OR REPRODUCERS; PREPARED UNRECORDED MEDIA</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>5.284459</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3243433081427035</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>20.269285</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.418915207471198</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>9.748168</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.9820068202200278</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>22.52357513809744</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>138.196434</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>10.51156217626624</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>169.674167</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.41406142637071</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>231.06166</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>16.17506010880697</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>75.51612299999999</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>7.60731122222909</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-54.801028966223</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2282,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>175.322331</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>40.85446746971441</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>119.544913</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>27.9590839435054</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>174.938304</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>38.60586918489127</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>84.793316</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>50.40270837001638</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-6.50456765048485</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>105.745241</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>24.64127349819237</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>100.521792</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>23.50996918354518</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>80.784762</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>17.8278049037481</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>14.539295</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>8.642424666947065</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-75.5351112575411</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>7.367698</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.716857040120462</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>61.303758</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>14.33768173786149</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>49.179132</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>10.8529869857347</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>12.845218</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>7.635434104302337</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-61.12539128922116</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1.553849</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.3620854973879413</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3.741981</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.8751720024590447</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>14.029026</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.095964292345251</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>12.151266</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.222936257434435</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>81.90234762812076</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>47.538364</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>11.07762219749088</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>21.331708</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.989045536637311</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>15.75807</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.477534508545136</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>9.912022</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.891888391570705</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-0.3151851456278054</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, FRESH, CHILLED, FROZEN OR SIMPLY PRESERVED; ROOTS, TUBERS AND OTHER EDIBLE VEGETABLE PRODUCTS, N.E.S., FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>16.007586</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.73016601921438</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>12.304919</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.877866189413133</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>11.838889</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.612638796523649</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>8.107236</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.819090360788556</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>20.04930955517006</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>13.168413</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>3.068568033904731</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>12.417888</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.904287303241824</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>22.143833</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.886762364233727</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>7.046169</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.188372598057728</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-14.64134719520084</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>19.242175</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>4.483905775722614</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>15.501916</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.62557770006633</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>14.949847</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.299173619610141</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>6.846021</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>4.069400941437506</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-26.30917072345314</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>7.333955</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.708994081146739</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>6.374128</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.490776774572149</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>8.984776</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.982785239026615</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>4.344369</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.582372928530589</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-14.9222242893652</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>26.682504</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>6.217687646866414</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>54.612695</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>12.77278041840273</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>29.206618</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>6.445397308991235</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>2.356316</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.400637618366093</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-89.26074815748085</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>9.176584999999999</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2.138372740239058</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>19.915224</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>4.657759210295409</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>31.325884</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>6.913082796350184</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>5.290438</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.144733762548604</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-67.91795876143495</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
